--- a/2018.xlsx
+++ b/2018.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>今天是2018年2月11日 星期日 天气晴</t>
   </si>
@@ -84,6 +84,9 @@
     <t>行动力比什么都重要，大不了失败了重新再找方向</t>
   </si>
   <si>
+    <t>包含steemit</t>
+  </si>
+  <si>
     <t>b.公众号或者自媒体</t>
   </si>
   <si>
@@ -112,6 +115,18 @@
   </si>
   <si>
     <t>还要牵扯到权力利益的争端，说实话这事我一直想避免的。因为我是一个喜欢有朋友的人，越来越网上，意味着朋友越来越少，友情还是应该要好好地珍惜的。</t>
+  </si>
+  <si>
+    <t>9、要养成的习惯</t>
+  </si>
+  <si>
+    <t>写博客/日记的习惯</t>
+  </si>
+  <si>
+    <t>学习新技术的习惯</t>
+  </si>
+  <si>
+    <t>学习管理知识的习惯</t>
   </si>
 </sst>
 </file>
@@ -119,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,80 +151,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +248,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,52 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +301,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,6 +343,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,7 +451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,151 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,17 +495,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,7 +564,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,177 +592,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:A52"/>
+  <dimension ref="A2:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1204,54 +1212,79 @@
         <v>21</v>
       </c>
     </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2018.xlsx
+++ b/2018.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20180211" sheetId="1" r:id="rId1"/>
     <sheet name="20180212" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="20180224" sheetId="3" r:id="rId3"/>
+    <sheet name="20180224别纸" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>今天是2018年2月11日 星期日 天气晴</t>
   </si>
@@ -165,7 +166,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>的方式。</t>
@@ -275,7 +277,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>要学的太多，自己</t>
@@ -296,7 +299,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>又有限，又想</t>
@@ -328,7 +332,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>。。。</t>
@@ -355,7 +360,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>放，意料之外情理之中。后面就是如何把昨天的目</t>
@@ -376,7 +382,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>付</t>
@@ -397,7 +404,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>施了。</t>
@@ -424,7 +432,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>好</t>
@@ -584,6 +593,708 @@
         <scheme val="minor"/>
       </rPr>
       <t>势，并利用</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>还是好几天没有更新了</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teemit的申</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于好了，就是不知道写些什么文章比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>好。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>正好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几天在学git的使用想着是不是写一些教程，也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自己留个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TortoiseGit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git本身有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多的命令可以使用，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图形化工具无非是把命令变成了图形的点击，方便了使用。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>对于我这种手残党加上记性不太好的人来说，图形界面可能更友好些吧。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软件的安装</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>这个就不多说了，google以下什么都有了</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2，使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一般的使用来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也就几</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>看个人的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来决定建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方式</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>如果你只是自己想更新一些自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，推荐github。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>原因是，直接在github网站上就能把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建好了省去了很多麻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，自己本地增增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>渐渐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容也方便</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (git init  git --bare init</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・内容的更新</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>如果是自己要建一个git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，操作就稍微复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了些，具体下次写</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>操作系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>windows 7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pull ⇒commit⇒push</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>一般按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>序</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -679,6 +1390,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>617601</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>141656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="161925"/>
+          <a:ext cx="12190476" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>531876</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>151181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10972800"/>
+          <a:ext cx="12190476" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>531876</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>151181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21088350"/>
+          <a:ext cx="12190476" cy="9752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1247,14 +2077,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2018.xlsx
+++ b/2018.xlsx
@@ -15,9 +15,10 @@
     <sheet name="20180211" sheetId="1" r:id="rId1"/>
     <sheet name="20180212" sheetId="2" r:id="rId2"/>
     <sheet name="20180224" sheetId="3" r:id="rId3"/>
-    <sheet name="20180224别纸" sheetId="4" r:id="rId4"/>
+    <sheet name="20180227" sheetId="5" r:id="rId4"/>
+    <sheet name="20180224别纸" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -681,7 +682,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>几天在学git的使用想着是不是写一些教程，也</t>
@@ -702,7 +704,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>自己留个</t>
@@ -744,7 +747,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>件</t>
@@ -771,7 +775,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>git本身有</t>
@@ -792,7 +797,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>多的命令可以使用，</t>
@@ -859,7 +865,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>的</t>
@@ -880,7 +887,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>也就几</t>
@@ -901,7 +909,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>功能</t>
@@ -2080,7 +2089,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2223,6 +2232,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/2018.xlsx
+++ b/2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20180211" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="20180224" sheetId="3" r:id="rId3"/>
     <sheet name="20180227" sheetId="5" r:id="rId4"/>
     <sheet name="20180224别纸" sheetId="4" r:id="rId5"/>
+    <sheet name="20180525" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>今天是2018年2月11日 星期日 天气晴</t>
   </si>
@@ -1306,13 +1307,1311 @@
       <t>序</t>
     </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>炒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几天的体会</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>今天是入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>圈的第四天， 有点感想随便写写。</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>去年 12 月的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候， 比特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到了 2 万美元，看到一些文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">能翻倍。 然而它却下降了。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>然后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有一堆的名人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">站台。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还预测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使得投</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">更得愈加可怕。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>各国政府也都拿出各种政策或支持或打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">压， 搞得无比热闹。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>我就是在看了几个月的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热闹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">以后， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>觉得作为这个时代的人， 多少应该跟次风， 进了币圈。</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>看了好几个市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， 感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上都有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一种情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">绪。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>当市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扬时， 大家都在它背后鼓吹， 到处宣传它， 并宣称加密货币是未来。</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>当市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下跌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">， 大家就不再那么肯定了， 开始失去信心， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还会问 “ 如果政府完全禁止加密货币？ ” 但在每次下跌后， 市场反弹更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>如果加密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的价格持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， 一段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">后下跌。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的基本部分。 所以，目前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然加密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币资产缩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>严</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重， 但我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认定现在是回调。</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>加密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由于是一天24小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">全年365天， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">时时都在交易过程中， 上涨和下跌比起股市有过之而无不及， </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">所以一直都有 “ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币圈一天， 股市一年 ” 的说法。 克服情绪化我觉得尤其重要。</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>建立自己的炒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论我觉得也很重要。 巴菲特曾经说过  “ 当其他投资者害怕， 贪婪时， 但你必须学会克服 ” 。</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能就是一个很好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>购买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机会， 而不是在回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或下跌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投机和恐慌。 通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做，建立自己的炒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">技巧。 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>即使在价格下跌的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候，你也可以在晚上睡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最后一点就是， 不要投入你无法承受的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>损失</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>毕竟不是专业炒币的， 还有本职工作， 把全部身家和每天的精力投入是赌徒的行为， 还是要客观分析， 佛系持币，才能有一个好心态迎接财富的增长。</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,6 +2648,21 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2088,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2250,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
@@ -2260,4 +3574,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>